--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1484689.972059449</v>
+        <v>1482432.950150366</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>258.7103078144052</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.172832184889641</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>337.1647577214389</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>334.58170967322</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903363</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>100.6689360158811</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5615160058696</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.2314026855073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250812</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,10 +1819,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>154.8522466658025</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>217.0325349306974</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.7576914549236</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>202.0303773349476</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>158.8226378576664</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>49.00186811940941</v>
       </c>
     </row>
     <row r="23">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.66925886831028</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492309</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>109.3235974497386</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>15.07437110675805</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>167.5136691783899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>121.7653892614125</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534548</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102222</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298067</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581635</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345256</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706226</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143247</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164171</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430363</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172073</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354224</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>30.1740940770806</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>70.55897304948915</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417127</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800346</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124586</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3952,7 +3952,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>879.7184058617563</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>879.7184058617563</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>468.7325010721488</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>696.5172850753191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.944160717209</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.678462110459</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>802.8902095122144</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>391.9043047226068</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4729,37 +4729,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5118,10 +5118,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861856</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963839</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4596778203085</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5258,46 +5258,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,16 +5355,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008795</v>
@@ -5373,34 +5373,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>393.5907674431234</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C16" t="n">
-        <v>393.5907674431234</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
         <v>95.56103444839442</v>
@@ -5434,16 +5434,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1386.474555727518</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.790067521631</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>842.3728974846708</v>
+        <v>874.5404723472674</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3833465866535</v>
+        <v>646.55092144925</v>
       </c>
       <c r="Y16" t="n">
-        <v>393.5907674431234</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,22 +5516,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.9597618327374</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1463.169511013228</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>1173.752340976268</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>1173.752340976268</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y19" t="n">
-        <v>952.9597618327374</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,13 +5735,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,52 +5750,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>625.8141267662577</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.8778888732405</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C22" t="n">
-        <v>402.8778888732405</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D22" t="n">
-        <v>402.8778888732405</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E22" t="n">
-        <v>402.8778888732405</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F22" t="n">
-        <v>255.9879413753301</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781988</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.308483745028</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X22" t="n">
-        <v>805.3189328470103</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.5263537034801</v>
+        <v>432.2000540015824</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,43 +5990,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>589.4655956925557</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>420.5294127646488</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>270.4127733523131</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>122.49967976992</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>122.49967976992</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6151,7 +6151,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208127</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W25" t="n">
-        <v>999.1036114208127</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X25" t="n">
-        <v>771.1140605227954</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y25" t="n">
-        <v>771.1140605227954</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.3871648742117</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6382,13 +6382,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6400,34 +6400,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1654.229705719673</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1365.126838845316</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1110.442350639429</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>821.0251806024687</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X28" t="n">
-        <v>593.0356297044514</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y28" t="n">
-        <v>593.0356297044514</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>540.4807149410337</v>
+        <v>260.9043113423039</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410337</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D31" t="n">
-        <v>390.364075528698</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6619,7 +6619,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6637,7 +6637,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
@@ -6649,7 +6649,7 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U31" t="n">
         <v>1253.788099626699</v>
@@ -6658,13 +6658,13 @@
         <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838518</v>
+        <v>709.6864413838514</v>
       </c>
       <c r="X31" t="n">
-        <v>709.6864413838518</v>
+        <v>481.696890485834</v>
       </c>
       <c r="Y31" t="n">
-        <v>540.4807149410337</v>
+        <v>260.9043113423039</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,70 +6753,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282341</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.6776738607302</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C34" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
         <v>95.56103444839442</v>
@@ -6859,28 +6859,28 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
         <v>1764.65758193153</v>
@@ -6889,19 +6889,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208127</v>
+        <v>999.1036114208121</v>
       </c>
       <c r="W34" t="n">
-        <v>876.1082687325173</v>
+        <v>709.6864413838515</v>
       </c>
       <c r="X34" t="n">
-        <v>648.1187178345</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="Y34" t="n">
-        <v>427.3261386909699</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6932,55 +6932,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986039</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1113.194126721817</v>
+        <v>244.6107493269873</v>
       </c>
       <c r="C37" t="n">
-        <v>945.3248683276536</v>
+        <v>244.6107493269873</v>
       </c>
       <c r="D37" t="n">
-        <v>796.2751534490609</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E37" t="n">
-        <v>649.4289844004109</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F37" t="n">
-        <v>503.6059614362431</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G37" t="n">
-        <v>336.9700493447052</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H37" t="n">
-        <v>191.819787096306</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>141.7293596308516</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152495</v>
+        <v>346.7622353152493</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992672</v>
+        <v>664.3677264992668</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834338</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.05301910084</v>
+        <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280147</v>
+        <v>1964.709007988875</v>
       </c>
       <c r="S37" t="n">
-        <v>1685.326515640717</v>
+        <v>1774.090048349444</v>
       </c>
       <c r="T37" t="n">
-        <v>1685.326515640717</v>
+        <v>1553.390357452713</v>
       </c>
       <c r="U37" t="n">
-        <v>1397.290573300103</v>
+        <v>1265.354415112099</v>
       </c>
       <c r="V37" t="n">
-        <v>1143.673009627959</v>
+        <v>1011.736851439955</v>
       </c>
       <c r="W37" t="n">
-        <v>1143.673009627959</v>
+        <v>723.3866059367376</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.194126721817</v>
+        <v>496.463979572463</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.194126721817</v>
+        <v>425.192289623484</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142067</v>
@@ -7281,19 +7281,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y39" t="n">
         <v>1138.808109517387</v>
@@ -7309,25 +7309,25 @@
         <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.89815074309</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932529</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>187.1890521477366</v>
@@ -7388,16 +7388,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7406,40 +7406,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518749</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604875</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819761</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,19 +7588,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>357.0540087506643</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>690.8733824405108</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1141.90759568892</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7731,7 +7731,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7804,7 +7804,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>260.9678829613757</v>
       </c>
       <c r="N11" t="n">
-        <v>344.7025836476837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>344.7025836476832</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>189.7998007892645</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>443.8160624667693</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>7.630896635344811</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>251.1867816683974</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>201.9664098701126</v>
+        <v>344.7025836476846</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>189.7998007892655</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>316.1012371454204</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>76.45227440777433</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>288.76726506768</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>96.13798426930828</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>105.1996354507111</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>73.34731650832771</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>189.7998007892644</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.60057749642999</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>131.3595915398104</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.552118421397449</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>50.10726598888039</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>7.203170401361831</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>169.5827852326854</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>139.3565493907179</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>92.48912964370474</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.2253518264306</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1724499918698</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>51.07098417370489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973657271</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>164.7576090751786</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935317</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143264</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164186</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877636</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>194.4793060235509</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636892</v>
+        <v>146.9694250142001</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>930643.6882295712</v>
+        <v>930643.6882295713</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>931338.7106313744</v>
+        <v>931338.7106313745</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="F2" t="n">
-        <v>476498.14426438</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="G2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643796</v>
       </c>
       <c r="H2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="I2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="J2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="K2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="L2" t="n">
         <v>476498.1442643797</v>
       </c>
-      <c r="K2" t="n">
-        <v>476498.14426438</v>
-      </c>
-      <c r="L2" t="n">
-        <v>476498.1442643798</v>
-      </c>
       <c r="M2" t="n">
-        <v>476860.7646479295</v>
+        <v>476860.7646479294</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="O2" t="n">
         <v>492625.0619185695</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185695</v>
+        <v>492625.0619185694</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696693</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414952</v>
+        <v>36735.10506414965</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="C4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811461</v>
+        <v>18496.05294811453</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740894</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740902</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26491,13 +26491,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96472.31657955462</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165118</v>
+        <v>-363550.5822165121</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980324</v>
+        <v>226417.2969980326</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980323</v>
+        <v>226417.2969980325</v>
       </c>
       <c r="E6" t="n">
-        <v>-365411.2803019307</v>
+        <v>-365478.4757921562</v>
       </c>
       <c r="F6" t="n">
-        <v>361966.1336914764</v>
+        <v>361898.9382012504</v>
       </c>
       <c r="G6" t="n">
-        <v>361966.1336914763</v>
+        <v>361898.9382012502</v>
       </c>
       <c r="H6" t="n">
-        <v>361966.1336914761</v>
+        <v>361898.9382012505</v>
       </c>
       <c r="I6" t="n">
-        <v>361966.1336914763</v>
+        <v>361898.9382012505</v>
       </c>
       <c r="J6" t="n">
-        <v>185542.9144988831</v>
+        <v>185475.7190086577</v>
       </c>
       <c r="K6" t="n">
-        <v>361966.1336914765</v>
+        <v>361898.9382012505</v>
       </c>
       <c r="L6" t="n">
-        <v>361966.133691476</v>
+        <v>361898.9382012504</v>
       </c>
       <c r="M6" t="n">
-        <v>231405.0760505909</v>
+        <v>231339.39147863</v>
       </c>
       <c r="N6" t="n">
-        <v>321951.632542909</v>
+        <v>321951.6325429091</v>
       </c>
       <c r="O6" t="n">
         <v>358686.7376070584</v>
       </c>
       <c r="P6" t="n">
-        <v>358686.7376070584</v>
+        <v>358686.7376070581</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018691</v>
+        <v>45.91888133018706</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,19 +26987,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>155.0738622063898</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.6591479970477</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>28.10813404956866</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>254.0141056048019</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>142.1113494150892</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405635</v>
+        <v>1.056255288405485</v>
       </c>
     </row>
     <row r="38">
@@ -30232,13 +30232,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>799.8889987916025</v>
       </c>
       <c r="N11" t="n">
-        <v>897.0044190605952</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
@@ -35428,10 +35428,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>897.0044190605947</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>588.5617870086363</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306624</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35811,19 +35811,19 @@
         <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>982.737178296996</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>344.8221831907453</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36358,10 +36358,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>759.2397825566165</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>740.8875257003393</v>
+        <v>883.6236994779111</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>742.1016362021768</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>714.863223364792</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>584.5052752959933</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>796.820265955899</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147186</v>
+        <v>46.63467190147168</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327252</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586038</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818895</v>
+        <v>348.6896346818893</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559457</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110454</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335161</v>
+        <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629929</v>
+        <v>79.45049382629911</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>635.059100099535</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>644.1207512809376</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>264.1343174770403</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>742.1016362021759</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
